--- a/Data/EC/NIT-9008279879.xlsx
+++ b/Data/EC/NIT-9008279879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AEC50C-6804-4888-AA94-01BCEF52F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9850BDD-2A7A-4839-A416-1278C4415FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58623B6C-B428-4B91-9AC2-E5C853A8AB5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA0CD34E-6C92-4773-AEB6-B32100D39AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,88 +65,67 @@
     <t>CC</t>
   </si>
   <si>
-    <t>33202695</t>
-  </si>
-  <si>
-    <t>LILIANA DEL ROSARIO ULLOQUE VERGARA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>1047442827</t>
   </si>
   <si>
     <t>CARLOS ANDRES PEREZ MARTINEZ</t>
   </si>
   <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>33207649</t>
+  </si>
+  <si>
+    <t>MARTA ISABEL LEDEZMA PABUENA</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1052958402</t>
-  </si>
-  <si>
-    <t>LINDA ESTHER HERNANDEZ LOPEZ</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>33207649</t>
-  </si>
-  <si>
-    <t>MARTA ISABEL LEDEZMA PABUENA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0225B97-3568-6190-B611-C6CC36B20586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A142C79-110A-1F8E-7953-086F8425CDB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,8 +890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898B7003-7181-4C3E-9B1C-42688A338309}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52BC7-78BE-433C-B043-8A1F18B02F66}">
+  <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -923,7 +902,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -936,7 +915,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -981,7 +960,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1013,12 +992,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1181432</v>
+        <v>1065654</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1029,17 +1008,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1066,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1089,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1898</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1103,16 +1082,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>44854</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
         <v>1160000</v>
@@ -1126,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1149,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1172,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1195,13 +1174,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1218,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1241,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1264,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1287,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1310,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1333,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1356,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1379,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1402,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1425,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1448,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1471,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1494,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1517,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1540,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1563,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1582,125 +1561,56 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="B38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G41" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="F38" s="24">
+        <v>44854</v>
+      </c>
+      <c r="G38" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
